--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/a-F11r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/a-F11r.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.79856333333333</v>
+        <v>42.31746133333333</v>
       </c>
       <c r="N2">
-        <v>107.39569</v>
+        <v>126.952384</v>
       </c>
       <c r="O2">
-        <v>0.8475880303044928</v>
+        <v>0.6904142182914543</v>
       </c>
       <c r="P2">
-        <v>0.8475880303044927</v>
+        <v>0.6904142182914543</v>
       </c>
       <c r="Q2">
-        <v>4.148528444737778</v>
+        <v>4.903973112433778</v>
       </c>
       <c r="R2">
-        <v>37.33675600264</v>
+        <v>44.135758011904</v>
       </c>
       <c r="S2">
-        <v>0.8475880303044928</v>
+        <v>0.6904142182914543</v>
       </c>
       <c r="T2">
-        <v>0.8475880303044927</v>
+        <v>0.6904142182914543</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.674518333333333</v>
+        <v>11.08476666666667</v>
       </c>
       <c r="N3">
-        <v>5.023555</v>
+        <v>33.2543</v>
       </c>
       <c r="O3">
-        <v>0.0396468898107204</v>
+        <v>0.1808492350906109</v>
       </c>
       <c r="P3">
-        <v>0.03964688981072039</v>
+        <v>0.1808492350906109</v>
       </c>
       <c r="Q3">
-        <v>0.1940521152311111</v>
+        <v>1.284561880088889</v>
       </c>
       <c r="R3">
-        <v>1.74646903708</v>
+        <v>11.5610569208</v>
       </c>
       <c r="S3">
-        <v>0.0396468898107204</v>
+        <v>0.1808492350906109</v>
       </c>
       <c r="T3">
-        <v>0.03964688981072039</v>
+        <v>0.1808492350906109</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09414433333333333</v>
+        <v>0.140061</v>
       </c>
       <c r="N4">
-        <v>0.282433</v>
+        <v>0.420183</v>
       </c>
       <c r="O4">
-        <v>0.002229017106394016</v>
+        <v>0.002285111223152439</v>
       </c>
       <c r="P4">
-        <v>0.002229017106394016</v>
+        <v>0.002285111223152439</v>
       </c>
       <c r="Q4">
-        <v>0.01090994744977778</v>
+        <v>0.016231015672</v>
       </c>
       <c r="R4">
-        <v>0.09818952704800001</v>
+        <v>0.146079141048</v>
       </c>
       <c r="S4">
-        <v>0.002229017106394016</v>
+        <v>0.002285111223152439</v>
       </c>
       <c r="T4">
-        <v>0.002229017106394016</v>
+        <v>0.002285111223152439</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.668579666666667</v>
+        <v>7.750570000000001</v>
       </c>
       <c r="N5">
-        <v>14.005739</v>
+        <v>23.25171</v>
       </c>
       <c r="O5">
-        <v>0.1105360627783929</v>
+        <v>0.1264514353947823</v>
       </c>
       <c r="P5">
-        <v>0.1105360627783929</v>
+        <v>0.1264514353947823</v>
       </c>
       <c r="Q5">
-        <v>0.541019910864889</v>
+        <v>0.8981773879733335</v>
       </c>
       <c r="R5">
-        <v>4.869179197784001</v>
+        <v>8.083596491760002</v>
       </c>
       <c r="S5">
-        <v>0.1105360627783929</v>
+        <v>0.1264514353947823</v>
       </c>
       <c r="T5">
-        <v>0.1105360627783929</v>
+        <v>0.1264514353947823</v>
       </c>
     </row>
   </sheetData>
